--- a/articles/glorious_framework_for_lit_review.xlsx
+++ b/articles/glorious_framework_for_lit_review.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2fa9b5944e34baf/Work/Research Projects/01 Work-In-Progress/Hacktivism/Articles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\source\repos\kanazuchijin\research_activism\articles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1568" documentId="11_95EE294B41B484BB636769CE5980559FB7B2A9A3" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FE3AA821-8858-400C-AEC2-74517D3EAE56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C3A8F0-BF9A-43E0-953C-3B293E3A2999}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="1755" windowWidth="17340" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="3750" windowWidth="21345" windowHeight="11985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Non-Profit" sheetId="4" r:id="rId1"/>
     <sheet name="Activism" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Startups" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="554">
   <si>
     <t>Year</t>
   </si>
@@ -2035,7 +2035,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2052,6 +2052,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2088,7 +2094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2155,6 +2161,15 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2501,10 +2516,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA86C332-DB55-466D-8640-BA30CBC98309}">
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomLeft" sqref="A1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8405,13 +8420,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
